--- a/results/many_equal/three_way_quicksort.xlsx
+++ b/results/many_equal/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{CB01833A-0881-4B71-8681-AC95FB9045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B333F400-B459-4A15-9BD3-86FA4FA7B186}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CB01833A-0881-4B71-8681-AC95FB9045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F5BC3F-9A13-4710-BFB1-EA07B23EE72D}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="1275" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_way_quicksort" sheetId="1" r:id="rId1"/>
@@ -593,19 +593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -631,19 +625,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -674,19 +662,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -785,19 +767,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -896,19 +872,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1018,10 +988,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1031,13 +1002,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe</a:t>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> der Eingabe in log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1054,10 +1020,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1077,9 +1044,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1093,8 +1060,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1123,9 +1091,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1140,10 +1108,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1153,13 +1122,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1176,10 +1140,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1209,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1250,8 +1216,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1275,28 +1242,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1339,19 +1295,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1377,19 +1327,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1420,19 +1364,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1531,19 +1469,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1653,10 +1585,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1666,13 +1599,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe</a:t>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> der Eingabe in log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1689,10 +1617,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1712,9 +1641,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1728,8 +1657,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1758,9 +1688,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1775,10 +1705,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1788,13 +1719,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1811,10 +1737,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1844,8 +1771,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1885,8 +1813,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1910,28 +1839,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2034,33 +1952,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2068,34 +1988,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2104,8 +2016,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2124,6 +2037,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2132,35 +2053,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2172,29 +2103,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2212,18 +2145,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2233,20 +2169,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2260,14 +2196,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2281,8 +2217,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2296,6 +2233,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2307,9 +2250,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2324,13 +2267,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2342,14 +2286,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2361,13 +2305,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2376,13 +2321,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2390,7 +2336,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2403,21 +2349,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2425,14 +2361,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2444,19 +2380,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2472,6 +2401,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2480,8 +2410,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2491,7 +2422,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2499,9 +2430,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2512,8 +2443,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2525,38 +2457,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2564,34 +2504,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2600,8 +2532,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2620,6 +2553,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2628,35 +2569,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2668,29 +2619,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2708,18 +2661,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2729,20 +2685,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2756,14 +2712,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2777,8 +2733,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2792,6 +2749,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2803,9 +2766,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2820,13 +2783,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2838,14 +2802,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2857,13 +2821,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2872,13 +2837,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2886,7 +2852,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2899,21 +2865,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2921,14 +2877,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2940,19 +2896,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2968,6 +2917,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2976,8 +2926,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2987,7 +2938,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2995,9 +2946,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3008,8 +2959,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3021,6 +2973,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3100,6 +3058,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/results/many_equal/three_way_quicksort.xlsx
+++ b/results/many_equal/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{CB01833A-0881-4B71-8681-AC95FB9045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F5BC3F-9A13-4710-BFB1-EA07B23EE72D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{CB01833A-0881-4B71-8681-AC95FB9045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{881ACD61-B6BC-448B-B475-F01457D2D881}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_way_quicksort" sheetId="1" r:id="rId1"/>
@@ -2987,16 +2987,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3023,16 +3023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3364,10 +3364,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">

--- a/results/many_equal/three_way_quicksort.xlsx
+++ b/results/many_equal/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{CB01833A-0881-4B71-8681-AC95FB9045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{881ACD61-B6BC-448B-B475-F01457D2D881}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{0158F027-98C0-4FC0-A8FB-F9BAD42788ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C8CD52-AD63-4B58-9099-8CB38EB20D33}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19725" yWindow="1935" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_way_quicksort" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BEST_CASE</t>
+    <t>AVERAGE_CASE</t>
   </si>
   <si>
-    <t>AVERAGE_CASE</t>
+    <t>BEST_CASE</t>
   </si>
   <si>
     <t>WORST_CASE</t>
@@ -656,7 +656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -716,31 +716,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>866</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1866</c:v>
+                  <c:v>17640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3566</c:v>
+                  <c:v>32910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7100</c:v>
+                  <c:v>61960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14133</c:v>
+                  <c:v>123790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28200</c:v>
+                  <c:v>233340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56333</c:v>
+                  <c:v>463230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112933</c:v>
+                  <c:v>916310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,7 +748,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5D2-46C1-85AA-6D29834CFA95}"/>
+              <c16:uniqueId val="{00000000-2909-4E90-8736-FE9D4E43BF87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -761,7 +761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,31 +821,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4910</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7840</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18280</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32970</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78070</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147600</c:v>
+                  <c:v>13180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338340</c:v>
+                  <c:v>26620</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660710</c:v>
+                  <c:v>52880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500310</c:v>
+                  <c:v>106410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5D2-46C1-85AA-6D29834CFA95}"/>
+              <c16:uniqueId val="{00000001-2909-4E90-8736-FE9D4E43BF87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,31 +926,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>21100</c:v>
+                  <c:v>19270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78900</c:v>
+                  <c:v>73190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307466</c:v>
+                  <c:v>280050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1216233</c:v>
+                  <c:v>1104630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5762066</c:v>
+                  <c:v>4378480</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19300800</c:v>
+                  <c:v>17444460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77689066</c:v>
+                  <c:v>69603660</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>310736133</c:v>
+                  <c:v>278857410</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1235067200</c:v>
+                  <c:v>1111820500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +958,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5D2-46C1-85AA-6D29834CFA95}"/>
+              <c16:uniqueId val="{00000002-2909-4E90-8736-FE9D4E43BF87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -971,11 +971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2098535888"/>
-        <c:axId val="2098532560"/>
+        <c:axId val="2126809088"/>
+        <c:axId val="2126814080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2098535888"/>
+        <c:axId val="2126809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,8 +1002,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in log2(n)</a:t>
+                  <a:t>Größe der</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Eingabe in log2(n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1073,7 +1078,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098532560"/>
+        <c:crossAx val="2126814080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098532560"/>
+        <c:axId val="2126814080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1192,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098535888"/>
+        <c:crossAx val="2126809088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,7 +1314,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Three-Way-Quicksort ohne Worst-Case</a:t>
+              <a:t>Three-Way-Quicksort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1358,7 +1363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1418,31 +1423,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>866</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1866</c:v>
+                  <c:v>17640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3566</c:v>
+                  <c:v>32910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7100</c:v>
+                  <c:v>61960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14133</c:v>
+                  <c:v>123790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28200</c:v>
+                  <c:v>233340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56333</c:v>
+                  <c:v>463230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112933</c:v>
+                  <c:v>916310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2C5-4EA1-90E3-014855AB978D}"/>
+              <c16:uniqueId val="{00000000-F7A9-4EE9-B8A4-BD8019D8B480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1463,7 +1468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1523,31 +1528,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4910</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7840</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18280</c:v>
+                  <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32970</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78070</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147600</c:v>
+                  <c:v>13180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338340</c:v>
+                  <c:v>26620</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660710</c:v>
+                  <c:v>52880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500310</c:v>
+                  <c:v>106410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1560,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C2C5-4EA1-90E3-014855AB978D}"/>
+              <c16:uniqueId val="{00000001-F7A9-4EE9-B8A4-BD8019D8B480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,11 +1573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2129150096"/>
-        <c:axId val="2129152592"/>
+        <c:axId val="2126803680"/>
+        <c:axId val="2126804096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129150096"/>
+        <c:axId val="2126803680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,8 +1604,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in log2(n)</a:t>
+                  <a:t>Größe der</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Eingabe in log2(n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1670,7 +1680,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129152592"/>
+        <c:crossAx val="2126804096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129152592"/>
+        <c:axId val="2126804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1794,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129150096"/>
+        <c:crossAx val="2126803680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,22 +2998,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EE0ED1-DA33-4C9E-1A82-CFF2EAAF045D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26092745-E4D2-DCBF-8945-9C8DC877793C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,23 +3033,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C872EB8E-F850-57CB-E3F7-17639DA93082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E08C2E-58F5-2B82-FE2A-9F4B73B23682}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,10 +3068,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3364,7 +3370,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,31 +3418,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>866</v>
+        <v>5900</v>
       </c>
       <c r="C2">
-        <v>900</v>
+        <v>9900</v>
       </c>
       <c r="D2">
-        <v>1866</v>
+        <v>17640</v>
       </c>
       <c r="E2">
-        <v>3566</v>
+        <v>32910</v>
       </c>
       <c r="F2">
-        <v>7100</v>
+        <v>61960</v>
       </c>
       <c r="G2">
-        <v>14133</v>
+        <v>123790</v>
       </c>
       <c r="H2">
-        <v>28200</v>
+        <v>233340</v>
       </c>
       <c r="I2">
-        <v>56333</v>
+        <v>463230</v>
       </c>
       <c r="J2">
-        <v>112933</v>
+        <v>916310</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,31 +3450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4910</v>
+        <v>590</v>
       </c>
       <c r="C3">
-        <v>7840</v>
+        <v>1100</v>
       </c>
       <c r="D3">
-        <v>18280</v>
+        <v>1750</v>
       </c>
       <c r="E3">
-        <v>32970</v>
+        <v>3350</v>
       </c>
       <c r="F3">
-        <v>78070</v>
+        <v>6980</v>
       </c>
       <c r="G3">
-        <v>147600</v>
+        <v>13180</v>
       </c>
       <c r="H3">
-        <v>338340</v>
+        <v>26620</v>
       </c>
       <c r="I3">
-        <v>660710</v>
+        <v>52880</v>
       </c>
       <c r="J3">
-        <v>1500310</v>
+        <v>106410</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3476,31 +3482,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21100</v>
+        <v>19270</v>
       </c>
       <c r="C4">
-        <v>78900</v>
+        <v>73190</v>
       </c>
       <c r="D4">
-        <v>307466</v>
+        <v>280050</v>
       </c>
       <c r="E4">
-        <v>1216233</v>
+        <v>1104630</v>
       </c>
       <c r="F4">
-        <v>5762066</v>
+        <v>4378480</v>
       </c>
       <c r="G4">
-        <v>19300800</v>
+        <v>17444460</v>
       </c>
       <c r="H4">
-        <v>77689066</v>
+        <v>69603660</v>
       </c>
       <c r="I4">
-        <v>310736133</v>
+        <v>278857410</v>
       </c>
       <c r="J4">
-        <v>1235067200</v>
+        <v>1111820500</v>
       </c>
     </row>
   </sheetData>
